--- a/data/trans_orig/P1426-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6971</v>
+        <v>6208</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23444</v>
+        <v>21742</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01198815238791852</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006677722522545327</v>
+        <v>0.005946942805365128</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02245721609274202</v>
+        <v>0.02082695003542529</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -764,19 +764,19 @@
         <v>24290</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16100</v>
+        <v>15515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36745</v>
+        <v>35170</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02171375299856676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01439259643473356</v>
+        <v>0.01386926853668842</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0328478879694285</v>
+        <v>0.03143995100737901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -785,19 +785,19 @@
         <v>36805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25215</v>
+        <v>26797</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51361</v>
+        <v>51621</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01701896413739815</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01165980808076945</v>
+        <v>0.01239110640461142</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02374984420666887</v>
+        <v>0.02386988582717217</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1031420</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1020491</v>
+        <v>1022193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1036964</v>
+        <v>1037727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9880118476120815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9775427839072587</v>
+        <v>0.9791730499645748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9933222774774547</v>
+        <v>0.994053057194635</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1008</v>
@@ -835,19 +835,19 @@
         <v>1094363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1081908</v>
+        <v>1083483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1102553</v>
+        <v>1103138</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9782862470014332</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9671521120305715</v>
+        <v>0.9685600489926209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9856074035652663</v>
+        <v>0.9861307314633115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1975</v>
@@ -856,19 +856,19 @@
         <v>2125783</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2111227</v>
+        <v>2110967</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2137373</v>
+        <v>2135791</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9829810358626019</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9762501557933312</v>
+        <v>0.9761301141728278</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9883401919192306</v>
+        <v>0.9876088935953886</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>20598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12357</v>
+        <v>12399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32641</v>
+        <v>32727</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02108151537706166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01264713825251876</v>
+        <v>0.01268944053324434</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03340710706667727</v>
+        <v>0.03349450894002769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -981,19 +981,19 @@
         <v>19751</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12008</v>
+        <v>12684</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30187</v>
+        <v>30366</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01808198222912089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0109927940931312</v>
+        <v>0.01161182397611359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02763571269498831</v>
+        <v>0.02779902238232677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -1002,19 +1002,19 @@
         <v>40350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28830</v>
+        <v>28193</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55856</v>
+        <v>56101</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01949822009587113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0139316778865015</v>
+        <v>0.01362391870477693</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02699127207050394</v>
+        <v>0.02710987827727156</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>956475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>944432</v>
+        <v>944346</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964716</v>
+        <v>964674</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9789184846229383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9665928929333227</v>
+        <v>0.9665054910599723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9873528617474813</v>
+        <v>0.9873105594667556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1000</v>
@@ -1052,19 +1052,19 @@
         <v>1072576</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1062140</v>
+        <v>1061961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1080319</v>
+        <v>1079643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9819180177708791</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9723642873050126</v>
+        <v>0.9722009776176732</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9890072059068689</v>
+        <v>0.9883881760238864</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1907</v>
@@ -1073,19 +1073,19 @@
         <v>2029050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2013544</v>
+        <v>2013299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2040570</v>
+        <v>2041207</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9805017799041289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9730087279294961</v>
+        <v>0.9728901217227288</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9860683221134986</v>
+        <v>0.986376081295223</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>14586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8461</v>
+        <v>8341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24629</v>
+        <v>24715</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01647869724318205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009559053431688419</v>
+        <v>0.009423608644527499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02782617646372304</v>
+        <v>0.02792279868523073</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1198,19 +1198,19 @@
         <v>9401</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4224</v>
+        <v>4346</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18862</v>
+        <v>20083</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01073457849450504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004823494590504871</v>
+        <v>0.004961955796686721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02153661053300907</v>
+        <v>0.02293065010254809</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1219,19 +1219,19 @@
         <v>23987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15885</v>
+        <v>15190</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36889</v>
+        <v>34828</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01362183776227367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009020694211610274</v>
+        <v>0.008626466541912277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02094865907681948</v>
+        <v>0.0197783407304474</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>870529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>860486</v>
+        <v>860400</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>876654</v>
+        <v>876774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9835213027568179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9721738235362769</v>
+        <v>0.9720772013147693</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9904409465683116</v>
+        <v>0.9905763913554726</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>813</v>
@@ -1269,19 +1269,19 @@
         <v>866395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>856934</v>
+        <v>855713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>871572</v>
+        <v>871450</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.989265421505495</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.978463389466991</v>
+        <v>0.9770693498974521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9951765054094951</v>
+        <v>0.9950380442033133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1629</v>
@@ -1290,19 +1290,19 @@
         <v>1736924</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1724022</v>
+        <v>1726083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1745026</v>
+        <v>1745721</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9863781622377263</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9790513409231806</v>
+        <v>0.9802216592695525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9909793057883898</v>
+        <v>0.9913735334580872</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>5078</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1990</v>
+        <v>1962</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12053</v>
+        <v>12097</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01009489334929682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003955214677147483</v>
+        <v>0.003900284289196763</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02396180101832331</v>
+        <v>0.02404809578989581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1415,19 +1415,19 @@
         <v>11314</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5285</v>
+        <v>5698</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18805</v>
+        <v>20125</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02498922542335497</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01167325181994923</v>
+        <v>0.01258643393922663</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04153533074083951</v>
+        <v>0.04445256063383347</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1436,19 +1436,19 @@
         <v>16391</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9482</v>
+        <v>9882</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26443</v>
+        <v>28130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01715022785280546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009920839603123659</v>
+        <v>0.01033977928294698</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02766701960964039</v>
+        <v>0.02943225138230277</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>497945</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490970</v>
+        <v>490926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501033</v>
+        <v>501061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9899051066507032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9760381989816768</v>
+        <v>0.9759519042101041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9960447853228525</v>
+        <v>0.9960997157108032</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -1486,19 +1486,19 @@
         <v>441422</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>433931</v>
+        <v>432611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>447451</v>
+        <v>447038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.975010774576645</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9584646692591605</v>
+        <v>0.9555474393661667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9883267481800507</v>
+        <v>0.9874135660607738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -1507,19 +1507,19 @@
         <v>939367</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>929315</v>
+        <v>927628</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>946276</v>
+        <v>945876</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9828497721471945</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9723329803903598</v>
+        <v>0.9705677486176971</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9900791603968764</v>
+        <v>0.9896602207170528</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>52777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39406</v>
+        <v>39063</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69148</v>
+        <v>69765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01548086819604052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01155895649243639</v>
+        <v>0.01145832199933383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02028322587508687</v>
+        <v>0.02046416432044781</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1632,19 +1632,19 @@
         <v>64756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49292</v>
+        <v>50649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>83295</v>
+        <v>84476</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01829529413714565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01392631986877054</v>
+        <v>0.01430969394768399</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0235330268116004</v>
+        <v>0.02386646087437003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -1653,19 +1653,19 @@
         <v>117533</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97212</v>
+        <v>96885</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143860</v>
+        <v>142759</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01691448232492655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01399008021255838</v>
+        <v>0.0139430446277909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02070327449436143</v>
+        <v>0.02054483403984562</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3356368</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3339997</v>
+        <v>3339380</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3369739</v>
+        <v>3370082</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9845191318039594</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9797167741249134</v>
+        <v>0.9795358356795524</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9884410435075639</v>
+        <v>0.9885416780006663</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3223</v>
@@ -1703,19 +1703,19 @@
         <v>3474755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3456216</v>
+        <v>3455035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3490219</v>
+        <v>3488862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9817047058628543</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9764669731883996</v>
+        <v>0.9761335391256301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9860736801312295</v>
+        <v>0.985690306052316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6369</v>
@@ -1724,19 +1724,19 @@
         <v>6831124</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6804797</v>
+        <v>6805898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6851445</v>
+        <v>6851772</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9830855176750735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9792967255056384</v>
+        <v>0.9794551659601543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9860099197874416</v>
+        <v>0.9860569553722091</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>16892</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10975</v>
+        <v>10596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26697</v>
+        <v>27100</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01497559873969983</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009729354651447964</v>
+        <v>0.009393254775806593</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02366778381753782</v>
+        <v>0.02402488214739108</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2089,19 +2089,19 @@
         <v>28096</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18445</v>
+        <v>19007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40110</v>
+        <v>42221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02230643911962531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0146435948552948</v>
+        <v>0.0150900089931579</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03184440553259606</v>
+        <v>0.03352017184012972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2110,19 +2110,19 @@
         <v>44989</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33357</v>
+        <v>31806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61241</v>
+        <v>59643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01884299754333375</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01397124651996769</v>
+        <v>0.01332138549230418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02564985370383338</v>
+        <v>0.02498088793685298</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1111105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1101300</v>
+        <v>1100897</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1117022</v>
+        <v>1117401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9850244012603002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9763322161824621</v>
+        <v>0.975975117852609</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.990270645348552</v>
+        <v>0.9906067452241935</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1162</v>
@@ -2160,19 +2160,19 @@
         <v>1231465</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1219451</v>
+        <v>1217340</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1241116</v>
+        <v>1240554</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9776935608803747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.968155594467404</v>
+        <v>0.9664798281598703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9853564051447057</v>
+        <v>0.9849099910068421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2210</v>
@@ -2181,19 +2181,19 @@
         <v>2342569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2326317</v>
+        <v>2327915</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2354201</v>
+        <v>2355752</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811570024566663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9743501462961666</v>
+        <v>0.9750191120631471</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9860287534800323</v>
+        <v>0.9866786145076958</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>17296</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10500</v>
+        <v>10622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26988</v>
+        <v>26838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01903162659618921</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01155286753562823</v>
+        <v>0.01168710326015268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02969589034298643</v>
+        <v>0.02953023005170142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -2306,19 +2306,19 @@
         <v>25729</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17025</v>
+        <v>17019</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37605</v>
+        <v>36970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02556396910320468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01691507569460321</v>
+        <v>0.01690951227200197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03736258378449813</v>
+        <v>0.03673179141660867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -2327,19 +2327,19 @@
         <v>43026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32035</v>
+        <v>31394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56526</v>
+        <v>57655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02246432178923983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01672559687971997</v>
+        <v>0.01639108220514721</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02951263653400974</v>
+        <v>0.0301023632914799</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>891529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>881837</v>
+        <v>881987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>898325</v>
+        <v>898203</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9809683734038108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9703041096570137</v>
+        <v>0.9704697699482987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9884471324643718</v>
+        <v>0.9883128967398473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>927</v>
@@ -2377,19 +2377,19 @@
         <v>980746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968870</v>
+        <v>969505</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>989450</v>
+        <v>989456</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9744360308967953</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9626374162155019</v>
+        <v>0.9632682085833913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9830849243053968</v>
+        <v>0.983090487727998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1790</v>
@@ -2398,19 +2398,19 @@
         <v>1872274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1858774</v>
+        <v>1857645</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1883265</v>
+        <v>1883906</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9775356782107602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9704873634659903</v>
+        <v>0.96989763670852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.98327440312028</v>
+        <v>0.9836089177948527</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>8000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3609</v>
+        <v>3745</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14206</v>
+        <v>15821</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009711820220811426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004380645750901754</v>
+        <v>0.004546604591301885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01724585398823023</v>
+        <v>0.01920552353576718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2523,19 +2523,19 @@
         <v>13954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6669</v>
+        <v>7553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22849</v>
+        <v>25217</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.018096820977858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008649626403706027</v>
+        <v>0.009795559634594228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02963277676374702</v>
+        <v>0.03270435429031852</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2544,19 +2544,19 @@
         <v>21954</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14076</v>
+        <v>12654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34256</v>
+        <v>34098</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01376577985473855</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008826178079809783</v>
+        <v>0.007934308229668124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02147968057153562</v>
+        <v>0.02138069098128122</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>815759</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>809553</v>
+        <v>807938</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820150</v>
+        <v>820014</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9902881797791886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9827541460117697</v>
+        <v>0.9807944764642328</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956193542490982</v>
+        <v>0.9954533954086981</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>717</v>
@@ -2594,19 +2594,19 @@
         <v>757105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>748210</v>
+        <v>745842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764390</v>
+        <v>763506</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.981903179022142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.970367223236253</v>
+        <v>0.9672956457096817</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.991350373596294</v>
+        <v>0.9902044403654058</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1495</v>
@@ -2615,19 +2615,19 @@
         <v>1572864</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1560562</v>
+        <v>1560720</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1580742</v>
+        <v>1582164</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9862342201452614</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9785203194284641</v>
+        <v>0.9786193090187191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9911738219201902</v>
+        <v>0.9920656917703323</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>6848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2196</v>
+        <v>2316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15187</v>
+        <v>15659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01351508909896975</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004334038931210227</v>
+        <v>0.004571279780101964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0299723275408183</v>
+        <v>0.03090441030284031</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2740,19 +2740,19 @@
         <v>3418</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9173</v>
+        <v>9955</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006979277792929745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002128167682438789</v>
+        <v>0.002113463798055052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01873236439347675</v>
+        <v>0.02032924442082112</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -2761,19 +2761,19 @@
         <v>10266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4652</v>
+        <v>4625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20396</v>
+        <v>20363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01030294963211126</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004668694290125229</v>
+        <v>0.004641467573880344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02046963158754201</v>
+        <v>0.02043699652777613</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>499853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>491514</v>
+        <v>491042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504505</v>
+        <v>504385</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9864849109010303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9700276724591815</v>
+        <v>0.9690955896971597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956659610687898</v>
+        <v>0.995428720219898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>452</v>
@@ -2811,19 +2811,19 @@
         <v>486280</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>480525</v>
+        <v>479743</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488656</v>
+        <v>488663</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9930207222070703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9812676356065233</v>
+        <v>0.9796707555791788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9978718323175612</v>
+        <v>0.9978865362019449</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>918</v>
@@ -2832,19 +2832,19 @@
         <v>986132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>976002</v>
+        <v>976035</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>991746</v>
+        <v>991773</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9896970503678888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9795303684124581</v>
+        <v>0.9795630034722239</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9953313057098747</v>
+        <v>0.9953585324261197</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>49037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35915</v>
+        <v>37016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62854</v>
+        <v>63196</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0145628297374832</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01066575131680117</v>
+        <v>0.01099297894143898</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01866616672023537</v>
+        <v>0.01876753384632297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -2957,19 +2957,19 @@
         <v>71197</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55155</v>
+        <v>53979</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88670</v>
+        <v>89535</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02018754129125429</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01563886890485564</v>
+        <v>0.01530528631376744</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02514187057375796</v>
+        <v>0.02538702172238997</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -2978,19 +2978,19 @@
         <v>120234</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96649</v>
+        <v>99219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140399</v>
+        <v>143501</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01744025576532492</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01401918830005849</v>
+        <v>0.01439196675858092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02036516866840344</v>
+        <v>0.02081517524092378</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3318245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3304428</v>
+        <v>3304086</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3331367</v>
+        <v>3330266</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9854371702625168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9813338332797648</v>
+        <v>0.981232466153677</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.989334248683199</v>
+        <v>0.9890070210585611</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3258</v>
@@ -3028,19 +3028,19 @@
         <v>3455595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3438122</v>
+        <v>3437257</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3471637</v>
+        <v>3472813</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9798124587087457</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9748581294262422</v>
+        <v>0.9746129782776101</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9843611310951444</v>
+        <v>0.9846947136862326</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6413</v>
@@ -3049,19 +3049,19 @@
         <v>6773841</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6753676</v>
+        <v>6750574</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6797426</v>
+        <v>6794856</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9825597442346751</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9796348313315967</v>
+        <v>0.9791848247590762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9859808116999416</v>
+        <v>0.9856080332414191</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>26656</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18676</v>
+        <v>18142</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36591</v>
+        <v>37489</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05353907053894735</v>
+        <v>0.05353907053894734</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03751213823657024</v>
+        <v>0.0364381785902172</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07349474183998345</v>
+        <v>0.07529818400828306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -3414,19 +3414,19 @@
         <v>39141</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30293</v>
+        <v>30513</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48749</v>
+        <v>49490</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06283057597766842</v>
+        <v>0.06283057597766843</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04862742871767401</v>
+        <v>0.04897969937768808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.078253762314341</v>
+        <v>0.07944320948480922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -3435,19 +3435,19 @@
         <v>65797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54559</v>
+        <v>54233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81190</v>
+        <v>80907</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05870332491462647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04867693061738298</v>
+        <v>0.04838649855407765</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07243657648850034</v>
+        <v>0.07218490535923498</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>471215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>461280</v>
+        <v>460382</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>479195</v>
+        <v>479729</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9464609294610528</v>
+        <v>0.9464609294610526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9265052581600169</v>
+        <v>0.924701815991717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9624878617634299</v>
+        <v>0.9635618214097827</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>791</v>
@@ -3485,19 +3485,19 @@
         <v>583824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>574216</v>
+        <v>573475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>592672</v>
+        <v>592452</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9371694240223316</v>
+        <v>0.9371694240223314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9217462376856592</v>
+        <v>0.9205567905151906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9513725712823262</v>
+        <v>0.9510203006223117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1210</v>
@@ -3506,19 +3506,19 @@
         <v>1055039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1039646</v>
+        <v>1039929</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1066277</v>
+        <v>1066603</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9412966750853735</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9275634235114998</v>
+        <v>0.9278150946407649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9513230693826175</v>
+        <v>0.9516135014459225</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>48538</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37393</v>
+        <v>37616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60535</v>
+        <v>63554</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0505528870291356</v>
+        <v>0.05055288702913562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03894592045731829</v>
+        <v>0.03917743630316158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06304878954943997</v>
+        <v>0.06619314281104099</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -3631,19 +3631,19 @@
         <v>52533</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41740</v>
+        <v>42765</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63329</v>
+        <v>64801</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04710761620723366</v>
+        <v>0.04710761620723367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0374300026600011</v>
+        <v>0.0383490681071998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05678884329331352</v>
+        <v>0.05810933089364044</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>174</v>
@@ -3652,19 +3652,19 @@
         <v>101070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86505</v>
+        <v>86360</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116982</v>
+        <v>118920</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0487015719552166</v>
+        <v>0.04870157195521661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04168305568378346</v>
+        <v>0.04161349503495133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05636881336535827</v>
+        <v>0.05730273143977427</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>911599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>899602</v>
+        <v>896583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922744</v>
+        <v>922521</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9494471129708644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9369512104505597</v>
+        <v>0.9338068571889591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9610540795426815</v>
+        <v>0.9608225636968385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1504</v>
@@ -3702,19 +3702,19 @@
         <v>1062627</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1051831</v>
+        <v>1050359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1073420</v>
+        <v>1072395</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9528923837927666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9432111567066868</v>
+        <v>0.9418906691063597</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9625699973399988</v>
+        <v>0.9616509318928005</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2342</v>
@@ -3723,19 +3723,19 @@
         <v>1974227</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1958315</v>
+        <v>1956377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1988792</v>
+        <v>1988937</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9512984280447834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9436311866346409</v>
+        <v>0.9426972685602256</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9583169443162164</v>
+        <v>0.9583865049650485</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>48000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37935</v>
+        <v>36252</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61354</v>
+        <v>60006</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04591973379205028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0362905558535499</v>
+        <v>0.03468060473518017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05869421568015656</v>
+        <v>0.05740533441361241</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -3848,19 +3848,19 @@
         <v>46026</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37205</v>
+        <v>36867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56874</v>
+        <v>57614</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0439598359255209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03553500023605007</v>
+        <v>0.03521256176986377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05432139277149205</v>
+        <v>0.0550277029372761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -3869,19 +3869,19 @@
         <v>94026</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79357</v>
+        <v>79513</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110418</v>
+        <v>111432</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04493899832821733</v>
+        <v>0.04493899832821734</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03792825469357076</v>
+        <v>0.03800242811389266</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0527735665219171</v>
+        <v>0.05325787660987433</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>997311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>983957</v>
+        <v>985305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1007376</v>
+        <v>1009059</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9540802662079497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9413057843198435</v>
+        <v>0.9425946655863876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.96370944414645</v>
+        <v>0.9653193952648198</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1430</v>
@@ -3919,19 +3919,19 @@
         <v>1000965</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>990117</v>
+        <v>989377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1009786</v>
+        <v>1010124</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9560401640744791</v>
+        <v>0.956040164074479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9456786072285081</v>
+        <v>0.944972297062724</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9644649997639499</v>
+        <v>0.9647874382301361</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2386</v>
@@ -3940,19 +3940,19 @@
         <v>1998276</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1981884</v>
+        <v>1980870</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2012945</v>
+        <v>2012789</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9550610016717828</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.947226433478083</v>
+        <v>0.9467421233901258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9620717453064292</v>
+        <v>0.9619975718861073</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>40182</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29832</v>
+        <v>31364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50696</v>
+        <v>54313</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04117347357601363</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03056791477235895</v>
+        <v>0.03213804241157126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05194626982094607</v>
+        <v>0.05565229432233472</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -4065,19 +4065,19 @@
         <v>34120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25912</v>
+        <v>26208</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44839</v>
+        <v>44797</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.037629770784891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02857727408351869</v>
+        <v>0.0289034732623159</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04945095644669532</v>
+        <v>0.04940480209967466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -4086,19 +4086,19 @@
         <v>74303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60975</v>
+        <v>61606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89313</v>
+        <v>91521</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03946674373160661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03238785004842807</v>
+        <v>0.03272260484277172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04743966603842557</v>
+        <v>0.04861244759951398</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>935747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>925233</v>
+        <v>921616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>946097</v>
+        <v>944565</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9588265264239864</v>
+        <v>0.9588265264239865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9480537301790539</v>
+        <v>0.9443477056776653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.969432085227641</v>
+        <v>0.9678619575884293</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1255</v>
@@ -4136,19 +4136,19 @@
         <v>872615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>861896</v>
+        <v>861938</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>880823</v>
+        <v>880527</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.962370229215109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9505490435533045</v>
+        <v>0.9505951979003253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9714227259164812</v>
+        <v>0.9710965267376841</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2147</v>
@@ -4157,19 +4157,19 @@
         <v>1808361</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1793351</v>
+        <v>1791143</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1821689</v>
+        <v>1821058</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9605332562683935</v>
+        <v>0.9605332562683934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9525603339615742</v>
+        <v>0.9513875524004863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.967612149951572</v>
+        <v>0.9672773951572285</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>163376</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>142878</v>
+        <v>142473</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>185090</v>
+        <v>185534</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04695728389105028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04106584191854377</v>
+        <v>0.04094938432060487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05319821519629551</v>
+        <v>0.05332596021396546</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>318</v>
@@ -4282,19 +4282,19 @@
         <v>171820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>152398</v>
+        <v>154001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>191870</v>
+        <v>192658</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0465402216919452</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04127962142902448</v>
+        <v>0.04171390002896355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05197132922847274</v>
+        <v>0.05218473110713216</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>552</v>
@@ -4303,19 +4303,19 @@
         <v>335196</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>309018</v>
+        <v>308932</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>368197</v>
+        <v>366361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04674257045243886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04309219946391656</v>
+        <v>0.04308014040371241</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05134460980160037</v>
+        <v>0.05108861708244</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3315872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3294158</v>
+        <v>3293714</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3336370</v>
+        <v>3336775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9530427161089499</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9468017848037045</v>
+        <v>0.9466740397860347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9589341580814561</v>
+        <v>0.9590506156793953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4980</v>
@@ -4353,19 +4353,19 @@
         <v>3520030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3499980</v>
+        <v>3499192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3539452</v>
+        <v>3537849</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9534597783080548</v>
+        <v>0.9534597783080546</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9480286707715271</v>
+        <v>0.9478152688928682</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9587203785709756</v>
+        <v>0.9582860999710366</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8085</v>
@@ -4374,19 +4374,19 @@
         <v>6835902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6802901</v>
+        <v>6804737</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6862080</v>
+        <v>6862166</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9532574295475612</v>
+        <v>0.9532574295475611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9486553901983996</v>
+        <v>0.9489113829175601</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9569078005360834</v>
+        <v>0.9569198595962877</v>
       </c>
     </row>
     <row r="18">
